--- a/Data/ToAnalyze/Analysis/Data_Anaysis_test.xlsx
+++ b/Data/ToAnalyze/Analysis/Data_Anaysis_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Investigación\Repositorios\Lapacom\Data\ToAnalyze\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECE16006-5D13-4D4F-8BB4-4225716E79FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555FFA51-49F2-449C-B506-D5A848D4791F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-465" windowWidth="29040" windowHeight="15720" xr2:uid="{022832FE-2AF2-4E86-A1F2-108D2B9B7A9F}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>std.error</t>
   </si>
   <si>
-    <t>statistic</t>
-  </si>
-  <si>
     <t>p.value</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Contrast binomial GLM model for assessing connectivity between patches (North and South)</t>
+  </si>
+  <si>
+    <t>z-statistic</t>
   </si>
 </sst>
 </file>
@@ -127,11 +127,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +159,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -245,52 +253,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -300,68 +364,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,16 +692,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC4687A-C510-4F24-98CA-7ACC85742D0C}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="A1:H27"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -694,519 +710,535 @@
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="40">
+      <c r="C3" s="27">
         <v>13.879432599999999</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="27">
         <v>5.0342629999999999E-2</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="50">
         <v>52.250120000000003</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="27">
         <v>12.592734999999999</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="27">
         <v>15.3407111</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="40">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="27">
         <v>0.26081860000000001</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="27">
         <v>5.8286259999999999E-2</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="50">
         <v>-23.057410000000001</v>
       </c>
       <c r="F4" s="1">
         <v>1.2395190000000001E-117</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="27">
         <v>0.23243</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="27">
         <v>0.29210710000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="49">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="36">
         <v>1.46</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="36">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="51">
         <v>4.03</v>
       </c>
       <c r="F5" s="5">
         <v>5.5300000000000002E-5</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="36">
         <v>1.22</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="36">
         <v>1.77</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="48">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="35">
         <v>61.0514625</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="35">
         <v>8.6426760000000005E-2</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="52">
         <v>47.574579999999997</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="35">
         <v>51.768771000000001</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="35">
         <v>72.669783100000004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="48">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="35">
         <v>0.16114539999999999</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="35">
         <v>9.3808710000000003E-2</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="52">
         <v>-19.45926</v>
       </c>
       <c r="F7" s="3">
         <v>2.432737E-84</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="35">
         <v>0.13354350000000001</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="35">
         <v>0.19296679999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="42">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="29">
         <v>1.4638259</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="29">
         <v>9.4503809999999994E-2</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="53">
         <v>4.0321499999999997</v>
       </c>
       <c r="F8" s="5">
         <v>5.5268980000000001E-5</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="29">
         <v>1.2189140000000001</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="29">
         <v>1.7659317000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="F12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="54"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="26">
+        <v>10.098474299999999</v>
+      </c>
+      <c r="D13" s="26">
+        <v>3.9042359999999998E-2</v>
+      </c>
+      <c r="E13" s="55">
+        <v>59.22757</v>
+      </c>
+      <c r="F13" s="32">
         <v>0</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="G13" s="26">
+        <v>9.3619418999999997</v>
+      </c>
+      <c r="H13" s="26">
+        <v>10.9104262</v>
+      </c>
+      <c r="O13" s="54"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0.33069779999999999</v>
+      </c>
+      <c r="D14" s="31">
+        <v>5.1230810000000002E-2</v>
+      </c>
+      <c r="E14" s="56">
+        <v>-21.599319999999999</v>
+      </c>
+      <c r="F14" s="33">
+        <v>1.8229370000000001E-103</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0.29900929999999998</v>
+      </c>
+      <c r="H14" s="31">
+        <v>0.36552069999999998</v>
+      </c>
+      <c r="O14" s="54"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="30">
+        <v>43.355102000000002</v>
+      </c>
+      <c r="D15" s="30">
+        <v>6.4620189999999994E-2</v>
+      </c>
+      <c r="E15" s="57">
+        <v>58.331989999999998</v>
+      </c>
+      <c r="F15" s="34">
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <v>38.293239900000003</v>
+      </c>
+      <c r="H15" s="30">
+        <v>49.337798900000003</v>
+      </c>
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0.1869287</v>
+      </c>
+      <c r="D16" s="31">
+        <v>7.5750940000000003E-2</v>
+      </c>
+      <c r="E16" s="56">
+        <v>-22.13871</v>
+      </c>
+      <c r="F16" s="33">
+        <v>1.3401260000000001E-108</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0.16086139999999999</v>
+      </c>
+      <c r="H16" s="31">
+        <v>0.2165049</v>
+      </c>
+      <c r="O16" s="54"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="21">
+        <v>3.8340000000000001</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0.223</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="21">
         <v>1</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="G22" s="21">
+        <v>23.056999999999999</v>
+      </c>
+      <c r="H22" s="22">
+        <v>1.23952E-117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="48"/>
+      <c r="B23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D23" s="17">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="17">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17">
+        <v>-4.032</v>
+      </c>
+      <c r="H23" s="18">
+        <v>5.5269000000000002E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49"/>
+      <c r="B24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19">
+        <v>-20.245999999999999</v>
+      </c>
+      <c r="H24" s="20">
+        <v>3.8803199999999998E-91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="39">
-        <v>10.098474299999999</v>
-      </c>
-      <c r="D13" s="39">
-        <v>3.9042359999999998E-2</v>
-      </c>
-      <c r="E13" s="39">
-        <v>59.22757</v>
-      </c>
-      <c r="F13" s="45">
-        <v>0</v>
-      </c>
-      <c r="G13" s="39">
-        <v>9.3619418999999997</v>
-      </c>
-      <c r="H13" s="39">
-        <v>10.9104262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="44">
-        <v>0.33069779999999999</v>
-      </c>
-      <c r="D14" s="44">
-        <v>5.1230810000000002E-2</v>
-      </c>
-      <c r="E14" s="44">
-        <v>-21.599319999999999</v>
-      </c>
-      <c r="F14" s="46">
-        <v>1.8229370000000001E-103</v>
-      </c>
-      <c r="G14" s="44">
-        <v>0.29900929999999998</v>
-      </c>
-      <c r="H14" s="44">
-        <v>0.36552069999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="43">
-        <v>43.355102000000002</v>
-      </c>
-      <c r="D15" s="43">
-        <v>6.4620189999999994E-2</v>
-      </c>
-      <c r="E15" s="43">
-        <v>58.331989999999998</v>
-      </c>
-      <c r="F15" s="47">
-        <v>0</v>
-      </c>
-      <c r="G15" s="43">
-        <v>38.293239900000003</v>
-      </c>
-      <c r="H15" s="43">
-        <v>49.337798900000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="44">
-        <v>0.1869287</v>
-      </c>
-      <c r="D16" s="44">
-        <v>7.5750940000000003E-2</v>
-      </c>
-      <c r="E16" s="44">
-        <v>-22.13871</v>
-      </c>
-      <c r="F16" s="46">
-        <v>1.3401260000000001E-108</v>
-      </c>
-      <c r="G16" s="44">
-        <v>0.16086139999999999</v>
-      </c>
-      <c r="H16" s="44">
-        <v>0.2165049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="B25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="23">
+        <v>6.2060000000000004</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="24" t="s">
+      <c r="F25" s="23">
+        <v>1</v>
+      </c>
+      <c r="G25" s="23">
+        <v>19.459</v>
+      </c>
+      <c r="H25" s="24">
+        <v>2.4327399999999998E-84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="34">
-        <v>3.8340000000000001</v>
-      </c>
-      <c r="D22" s="34">
-        <v>0.223</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="C26" s="17">
+        <v>3.5110000000000001</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0.41</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="17">
         <v>1</v>
       </c>
-      <c r="G22" s="34">
-        <v>23.056999999999999</v>
-      </c>
-      <c r="H22" s="35">
-        <v>1.23952E-117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="24" t="s">
+      <c r="G26" s="17">
+        <v>10.762</v>
+      </c>
+      <c r="H26" s="18">
+        <v>5.2173899999999996E-27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
+      <c r="B27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="30">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="D23" s="30">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="30">
+      <c r="C27" s="19">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D27" s="19">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="19">
         <v>1</v>
       </c>
-      <c r="G23" s="30">
-        <v>-4.032</v>
-      </c>
-      <c r="H23" s="31">
-        <v>5.5269000000000002E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="32">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="D24" s="32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="32">
-        <v>1</v>
-      </c>
-      <c r="G24" s="32">
-        <v>-20.245999999999999</v>
-      </c>
-      <c r="H24" s="33">
-        <v>3.8803199999999998E-91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="36">
-        <v>6.2060000000000004</v>
-      </c>
-      <c r="D25" s="36">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="36">
-        <v>1</v>
-      </c>
-      <c r="G25" s="36">
-        <v>19.459</v>
-      </c>
-      <c r="H25" s="37">
-        <v>2.4327399999999998E-84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="30">
-        <v>3.5110000000000001</v>
-      </c>
-      <c r="D26" s="30">
-        <v>0.41</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="30">
-        <v>1</v>
-      </c>
-      <c r="G26" s="30">
-        <v>10.762</v>
-      </c>
-      <c r="H26" s="31">
-        <v>5.2173899999999996E-27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="32">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="D27" s="32">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="32">
-        <v>1</v>
-      </c>
-      <c r="G27" s="32">
+      <c r="G27" s="19">
         <v>-6.5860000000000003</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="25">
         <v>4.5033800000000001E-11</v>
       </c>
     </row>
@@ -1218,7 +1250,10 @@
       <c r="M30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="O9:V9"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O16"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A3:A5"/>
